--- a/testFile/t_menu.xlsx
+++ b/testFile/t_menu.xlsx
@@ -19,23 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>系统管理</t>
   </si>
   <si>
-    <t>el-icon-set-up</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>系统监控</t>
   </si>
   <si>
-    <t>el-icon-data-line</t>
-  </si>
-  <si>
     <t>用户管理</t>
   </si>
   <si>
@@ -54,9 +45,6 @@
     <t>新增用户</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>修改用户</t>
   </si>
   <si>
@@ -105,18 +93,12 @@
     <t>其他模块</t>
   </si>
   <si>
-    <t>el-icon-shopping-bag-1</t>
-  </si>
-  <si>
     <t>导入导出</t>
   </si>
   <si>
     <t>代码生成</t>
   </si>
   <si>
-    <t>el-icon-printer</t>
-  </si>
-  <si>
     <t>基础配置</t>
   </si>
   <si>
@@ -147,9 +129,6 @@
     <t>静态组件</t>
   </si>
   <si>
-    <t>el-icon-present</t>
-  </si>
-  <si>
     <t>二级菜单</t>
   </si>
   <si>
@@ -165,9 +144,6 @@
     <t>网关管理</t>
   </si>
   <si>
-    <t>el-icon-odometer</t>
-  </si>
-  <si>
     <t>网关用户</t>
   </si>
   <si>
@@ -196,9 +172,6 @@
   </si>
   <si>
     <t>任务调度</t>
-  </si>
-  <si>
-    <t>el-icon-alarm-clock</t>
   </si>
   <si>
     <t>任务列表</t>
@@ -240,19 +213,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限</t>
+    <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
+    <t>准金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排序号1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
+    <t>计类金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,33 +564,29 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -631,8 +596,8 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
+      <c r="D2">
+        <v>53</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -640,11 +605,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -652,22 +614,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -675,19 +634,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>4100</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -695,19 +654,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>500</v>
+        <v>5150</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -715,19 +674,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>6950</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -735,19 +694,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>8750</v>
       </c>
       <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>10</v>
       </c>
@@ -755,19 +714,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>10550</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>11</v>
       </c>
@@ -775,16 +734,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>500</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>12350</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>12</v>
       </c>
@@ -792,16 +754,19 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>500</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>13</v>
       </c>
@@ -809,16 +774,19 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>62</v>
       </c>
       <c r="E11">
-        <v>500</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>520</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>14</v>
       </c>
@@ -826,16 +794,19 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>500</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>945</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>15</v>
       </c>
@@ -843,16 +814,19 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>500</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1370</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>16</v>
       </c>
@@ -860,16 +834,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>65</v>
       </c>
       <c r="E14">
-        <v>500</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1795</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>17</v>
       </c>
@@ -877,16 +854,19 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>66</v>
       </c>
       <c r="E15">
-        <v>500</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>2220</v>
+      </c>
+      <c r="F15">
+        <v>-0.30000000000000099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>18</v>
       </c>
@@ -894,16 +874,19 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>67</v>
       </c>
       <c r="E16">
-        <v>500</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>2645</v>
+      </c>
+      <c r="F16">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>19</v>
       </c>
@@ -911,16 +894,19 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>68</v>
       </c>
       <c r="E17">
-        <v>500</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>3070</v>
+      </c>
+      <c r="F17">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>20</v>
       </c>
@@ -928,16 +914,19 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>69</v>
       </c>
       <c r="E18">
-        <v>500</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>3495</v>
+      </c>
+      <c r="F18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>21</v>
       </c>
@@ -945,16 +934,19 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>500</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>3920</v>
+      </c>
+      <c r="F19">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>22</v>
       </c>
@@ -962,16 +954,19 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>71</v>
       </c>
       <c r="E20">
-        <v>500</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>4345</v>
+      </c>
+      <c r="F20">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>24</v>
       </c>
@@ -979,16 +974,19 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>72</v>
       </c>
       <c r="E21">
-        <v>500</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>4770</v>
+      </c>
+      <c r="F21">
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>130</v>
       </c>
@@ -996,16 +994,19 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>73</v>
       </c>
       <c r="E22">
-        <v>500</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>5195</v>
+      </c>
+      <c r="F22">
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>131</v>
       </c>
@@ -1013,16 +1014,19 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
       </c>
       <c r="E23">
-        <v>500</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>5620</v>
+      </c>
+      <c r="F23">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>132</v>
       </c>
@@ -1030,16 +1034,19 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
       </c>
       <c r="E24">
-        <v>500</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>6045</v>
+      </c>
+      <c r="F24">
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>133</v>
       </c>
@@ -1047,16 +1054,19 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>500</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>6470</v>
+      </c>
+      <c r="F25">
+        <v>-9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>135</v>
       </c>
@@ -1064,16 +1074,19 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>77</v>
       </c>
       <c r="E26">
-        <v>500</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>6895</v>
+      </c>
+      <c r="F26">
+        <v>-10.199999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>136</v>
       </c>
@@ -1081,16 +1094,19 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>78</v>
       </c>
       <c r="E27">
-        <v>500</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>7320</v>
+      </c>
+      <c r="F27">
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>150</v>
       </c>
@@ -1098,19 +1114,19 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>79</v>
       </c>
       <c r="E28">
-        <v>500</v>
+        <v>7745</v>
       </c>
       <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>151</v>
       </c>
@@ -1118,16 +1134,19 @@
         <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
       </c>
       <c r="E29">
-        <v>500</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>8170</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>152</v>
       </c>
@@ -1135,16 +1154,19 @@
         <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>81</v>
       </c>
       <c r="E30">
-        <v>500</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>8595</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>154</v>
       </c>
@@ -1152,22 +1174,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>81</v>
       </c>
       <c r="E31">
-        <v>500</v>
+        <v>9020</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
-      <c r="G31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>155</v>
       </c>
@@ -1175,19 +1194,19 @@
         <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>81</v>
       </c>
       <c r="E32">
-        <v>500</v>
+        <v>9445</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>156</v>
       </c>
@@ -1195,22 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>81</v>
       </c>
       <c r="E33">
-        <v>500</v>
+        <v>9870</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>157</v>
       </c>
@@ -1218,19 +1234,19 @@
         <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>81</v>
       </c>
       <c r="E34">
-        <v>500</v>
+        <v>10295</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>158</v>
       </c>
@@ -1238,19 +1254,19 @@
         <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>81</v>
       </c>
       <c r="E35">
-        <v>500</v>
+        <v>10720</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>159</v>
       </c>
@@ -1258,16 +1274,19 @@
         <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>81</v>
       </c>
       <c r="E36">
-        <v>500</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>11145</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>160</v>
       </c>
@@ -1275,16 +1294,19 @@
         <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>81</v>
       </c>
       <c r="E37">
-        <v>500</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>11570</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>163</v>
       </c>
@@ -1292,19 +1314,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>81</v>
       </c>
       <c r="E38">
-        <v>500</v>
+        <v>11995</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
-      <c r="G38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>164</v>
       </c>
@@ -1312,16 +1334,19 @@
         <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>81</v>
       </c>
       <c r="E39">
-        <v>500</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>12420</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>165</v>
       </c>
@@ -1329,16 +1354,19 @@
         <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>81</v>
       </c>
       <c r="E40">
-        <v>500</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>12845</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>166</v>
       </c>
@@ -1346,16 +1374,19 @@
         <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>81</v>
       </c>
       <c r="E41">
-        <v>500</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>13270</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>167</v>
       </c>
@@ -1363,16 +1394,19 @@
         <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>81</v>
       </c>
       <c r="E42">
-        <v>500</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>13695</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>168</v>
       </c>
@@ -1380,22 +1414,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>81</v>
       </c>
       <c r="E43">
-        <v>500</v>
+        <v>14120</v>
       </c>
       <c r="F43">
         <v>7</v>
       </c>
-      <c r="G43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>169</v>
       </c>
@@ -1403,19 +1434,19 @@
         <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <v>81</v>
       </c>
       <c r="E44">
-        <v>500</v>
+        <v>14545</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>170</v>
       </c>
@@ -1423,19 +1454,19 @@
         <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>81</v>
       </c>
       <c r="E45">
-        <v>500</v>
+        <v>14970</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>171</v>
       </c>
@@ -1443,19 +1474,19 @@
         <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="D46">
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>500</v>
+        <v>15395</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="G46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>172</v>
       </c>
@@ -1463,19 +1494,19 @@
         <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>81</v>
       </c>
       <c r="E47">
-        <v>500</v>
+        <v>15820</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
-      <c r="G47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>173</v>
       </c>
@@ -1483,22 +1514,19 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>81</v>
       </c>
       <c r="E48">
-        <v>500</v>
+        <v>16245</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
-      <c r="G48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>174</v>
       </c>
@@ -1506,19 +1534,19 @@
         <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>81</v>
       </c>
       <c r="E49">
-        <v>500</v>
+        <v>16670</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>175</v>
       </c>
@@ -1526,19 +1554,19 @@
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>81</v>
       </c>
       <c r="E50">
-        <v>500</v>
+        <v>17095</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
-      <c r="G50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>176</v>
       </c>
@@ -1546,19 +1574,19 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>81</v>
       </c>
       <c r="E51">
-        <v>500</v>
+        <v>17520</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
-      <c r="G51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>177</v>
       </c>
@@ -1566,19 +1594,19 @@
         <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>81</v>
       </c>
       <c r="E52">
-        <v>500</v>
+        <v>17945</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
-      <c r="G52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>178</v>
       </c>
@@ -1586,19 +1614,19 @@
         <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <v>81</v>
       </c>
       <c r="E53">
-        <v>500</v>
+        <v>18370</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
-      <c r="G53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>179</v>
       </c>
@@ -1606,19 +1634,19 @@
         <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>81</v>
       </c>
       <c r="E54">
-        <v>500</v>
+        <v>18795</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
-      <c r="G54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>180</v>
       </c>
@@ -1626,19 +1654,19 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D55">
+        <v>81</v>
       </c>
       <c r="E55">
-        <v>500</v>
+        <v>19220</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>181</v>
       </c>
@@ -1646,19 +1674,19 @@
         <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="D56">
+        <v>81</v>
       </c>
       <c r="E56">
-        <v>500</v>
+        <v>19645</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="G56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>182</v>
       </c>
@@ -1666,19 +1694,19 @@
         <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="D57">
+        <v>81</v>
       </c>
       <c r="E57">
-        <v>500</v>
+        <v>20070</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
-      <c r="G57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>183</v>
       </c>
@@ -1686,22 +1714,19 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>81</v>
       </c>
       <c r="E58">
-        <v>500</v>
+        <v>20495</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
-      <c r="G58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>184</v>
       </c>
@@ -1709,19 +1734,19 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>81</v>
       </c>
       <c r="E59">
-        <v>500</v>
+        <v>20920</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>185</v>
       </c>
@@ -1729,19 +1754,19 @@
         <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="D60">
+        <v>81</v>
       </c>
       <c r="E60">
-        <v>500</v>
+        <v>21345</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
-      <c r="G60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>186</v>
       </c>
@@ -1749,16 +1774,19 @@
         <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <v>81</v>
       </c>
       <c r="E61">
-        <v>500</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>21770</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>187</v>
       </c>
@@ -1766,16 +1794,19 @@
         <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="D62">
+        <v>81</v>
       </c>
       <c r="E62">
-        <v>500</v>
-      </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>22195</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>188</v>
       </c>
@@ -1783,16 +1814,19 @@
         <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>81</v>
       </c>
       <c r="E63">
-        <v>500</v>
-      </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>22620</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>189</v>
       </c>
@@ -1800,16 +1834,19 @@
         <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="D64">
+        <v>81</v>
       </c>
       <c r="E64">
-        <v>500</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>23045</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>190</v>
       </c>
@@ -1817,16 +1854,19 @@
         <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="D65">
+        <v>81</v>
       </c>
       <c r="E65">
-        <v>500</v>
-      </c>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>23470</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>191</v>
       </c>
@@ -1834,16 +1874,19 @@
         <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="D66">
+        <v>81</v>
       </c>
       <c r="E66">
-        <v>500</v>
-      </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>23895</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>192</v>
       </c>
@@ -1851,16 +1894,19 @@
         <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>81</v>
       </c>
       <c r="E67">
-        <v>500</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>24320</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>193</v>
       </c>
@@ -1868,16 +1914,19 @@
         <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="D68">
+        <v>81</v>
       </c>
       <c r="E68">
-        <v>500</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>24745</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>194</v>
       </c>
@@ -1885,12 +1934,15 @@
         <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="D69">
+        <v>81</v>
       </c>
       <c r="E69">
-        <v>500</v>
-      </c>
-      <c r="G69" t="s">
+        <v>25170</v>
+      </c>
+      <c r="F69">
         <v>11</v>
       </c>
     </row>
